--- a/Graphs/13次高調波の比較.xlsx
+++ b/Graphs/13次高調波の比較.xlsx
@@ -121,9 +121,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.6533801918827948E-2"/>
+          <c:x val="9.1643657537158141E-2"/>
           <c:y val="2.6331538001196888E-2"/>
-          <c:w val="0.91644171597194424"/>
+          <c:w val="0.891331860353614"/>
           <c:h val="0.91093946290824956"/>
         </c:manualLayout>
       </c:layout>
@@ -134,7 +134,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>変化前</c:v>
+            <c:v>測定1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1354,7 +1354,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>変化後</c:v>
+            <c:v>測定2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2578,13 +2578,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="722843696"/>
-        <c:axId val="722848792"/>
+        <c:axId val="772677912"/>
+        <c:axId val="772680264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="722843696"/>
+        <c:axId val="772677912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2691,12 +2692,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="722848792"/>
+        <c:crossAx val="772680264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="722848792"/>
+        <c:axId val="772680264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2809,7 +2810,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="722843696"/>
+        <c:crossAx val="772677912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4116,11 +4117,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="648926648"/>
-        <c:axId val="648930176"/>
+        <c:axId val="772682224"/>
+        <c:axId val="772682616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="648926648"/>
+        <c:axId val="772682224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4162,7 +4163,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4229,12 +4229,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648930176"/>
+        <c:crossAx val="772682616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="648930176"/>
+        <c:axId val="772682616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4280,7 +4280,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4347,7 +4346,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648926648"/>
+        <c:crossAx val="772682224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5654,11 +5653,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="648928216"/>
-        <c:axId val="648928608"/>
+        <c:axId val="772675560"/>
+        <c:axId val="772676736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="648928216"/>
+        <c:axId val="772675560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5700,7 +5699,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5767,12 +5765,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648928608"/>
+        <c:crossAx val="772676736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="648928608"/>
+        <c:axId val="772676736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5818,7 +5816,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5885,7 +5882,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648928216"/>
+        <c:crossAx val="772675560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8001,7 +7998,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Graphs/13次高調波の比較.xlsx
+++ b/Graphs/13次高調波の比較.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,6 @@
     <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
     <sheet name="貼り付け用" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">強!$A$1:$J$131</definedName>
@@ -120,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -324,15 +321,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -367,8 +355,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1523,14 +1520,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1020007704"/>
-        <c:axId val="1020009664"/>
+        <c:axId val="950362824"/>
+        <c:axId val="950370664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1020007704"/>
+        <c:axId val="950362824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="45"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1550,7 +1547,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1563,10 +1560,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
                   <a:t>XUV-IR delay[fs]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1584,7 +1581,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1622,7 +1619,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1637,12 +1634,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1020009664"/>
+        <c:crossAx val="950370664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1020009664"/>
+        <c:axId val="950370664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,7 +1661,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1677,18 +1674,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
                   <a:t>信号強度</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
                   <a:t>[a.u]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6315079259160401E-2"/>
+              <c:y val="0.33409331014951671"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1702,7 +1706,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1740,7 +1744,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1755,7 +1759,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1020007704"/>
+        <c:crossAx val="950362824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1769,6 +1773,52 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -2719,8 +2769,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1454407320"/>
-        <c:axId val="1454404968"/>
+        <c:axId val="950373408"/>
+        <c:axId val="950366744"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -3012,7 +3062,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$3:$B$35</c15:sqref>
@@ -3126,7 +3176,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$G$3:$G$35</c15:sqref>
@@ -3245,7 +3295,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1454407320"/>
+        <c:axId val="950373408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3287,7 +3337,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3354,12 +3403,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1454404968"/>
+        <c:crossAx val="950366744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1454404968"/>
+        <c:axId val="950366744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3405,7 +3454,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3472,7 +3520,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1454407320"/>
+        <c:crossAx val="950373408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3813,11 +3861,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1029574720"/>
-        <c:axId val="776614800"/>
+        <c:axId val="950363216"/>
+        <c:axId val="950371056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1029574720"/>
+        <c:axId val="950363216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3859,7 +3907,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3926,12 +3973,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="776614800"/>
+        <c:crossAx val="950371056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="776614800"/>
+        <c:axId val="950371056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3977,7 +4024,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4044,7 +4090,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1029574720"/>
+        <c:crossAx val="950363216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4627,11 +4673,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="782669944"/>
-        <c:axId val="782666808"/>
+        <c:axId val="950364000"/>
+        <c:axId val="950367136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="782669944"/>
+        <c:axId val="950364000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4673,7 +4719,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4740,12 +4785,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="782666808"/>
+        <c:crossAx val="950367136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="782666808"/>
+        <c:axId val="950367136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4791,7 +4836,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4858,7 +4902,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="782669944"/>
+        <c:crossAx val="950364000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4963,7 +5007,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5497,11 +5540,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="630355968"/>
-        <c:axId val="630355576"/>
+        <c:axId val="950364784"/>
+        <c:axId val="950365568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="630355968"/>
+        <c:axId val="950364784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5558,12 +5601,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630355576"/>
+        <c:crossAx val="950365568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="630355576"/>
+        <c:axId val="950365568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5620,7 +5663,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630355968"/>
+        <c:crossAx val="950364784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8454,15 +8497,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8628,391 +8671,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="弱"/>
-      <sheetName val="強"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="貼り付け用"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>-0.27591175025078607</v>
-          </cell>
-          <cell r="G3">
-            <v>-0.3405605674750703</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>1.3299999999999912</v>
-          </cell>
-          <cell r="C4">
-            <v>0.27380062727763232</v>
-          </cell>
-          <cell r="G4">
-            <v>0.19037043888687577</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>2.5390909090908949</v>
-          </cell>
-          <cell r="C5">
-            <v>-0.28006955645258247</v>
-          </cell>
-          <cell r="G5">
-            <v>-0.25774155580428937</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>3.9899999999999949</v>
-          </cell>
-          <cell r="C6">
-            <v>0.31008693594785569</v>
-          </cell>
-          <cell r="G6">
-            <v>0.19159326993167924</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>5.3199999999999932</v>
-          </cell>
-          <cell r="C7">
-            <v>-0.31950571830598495</v>
-          </cell>
-          <cell r="G7">
-            <v>-0.2497375707837575</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>6.6499999999999915</v>
-          </cell>
-          <cell r="C8">
-            <v>0.25250761975934155</v>
-          </cell>
-          <cell r="G8">
-            <v>0.27096612138528675</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>8.2016666666665969</v>
-          </cell>
-          <cell r="C9">
-            <v>-0.27112397341235378</v>
-          </cell>
-          <cell r="G9">
-            <v>-0.23817625908743373</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>9.0883333333332956</v>
-          </cell>
-          <cell r="C10">
-            <v>0.26762691503860131</v>
-          </cell>
-          <cell r="G10">
-            <v>0.20493324496589901</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>10.639999999999894</v>
-          </cell>
-          <cell r="C11">
-            <v>-0.30111057571621891</v>
-          </cell>
-          <cell r="G11">
-            <v>-0.22894944302209841</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>11.969999999999892</v>
-          </cell>
-          <cell r="C12">
-            <v>0.23675835384344601</v>
-          </cell>
-          <cell r="G12">
-            <v>0.25618098238902653</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>13.299999999999891</v>
-          </cell>
-          <cell r="C13">
-            <v>-0.28271543312645292</v>
-          </cell>
-          <cell r="G13">
-            <v>-0.18114786581614428</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>14.629999999999896</v>
-          </cell>
-          <cell r="C14">
-            <v>0.30391322370882462</v>
-          </cell>
-          <cell r="G14">
-            <v>0.20482207850728051</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>17.289999999999893</v>
-          </cell>
-          <cell r="C15">
-            <v>-0.28473133916368754</v>
-          </cell>
-          <cell r="G15">
-            <v>-0.22150129029465904</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>18.885999999999896</v>
-          </cell>
-          <cell r="C16">
-            <v>0.20185798057382145</v>
-          </cell>
-          <cell r="G16">
-            <v>0.17914262656640748</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>19.949999999999896</v>
-          </cell>
-          <cell r="C17">
-            <v>-0.19855135607190708</v>
-          </cell>
-          <cell r="G17">
-            <v>-0.22061195862571106</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>21.279999999999895</v>
-          </cell>
-          <cell r="C18">
-            <v>0.21559134045248238</v>
-          </cell>
-          <cell r="G18">
-            <v>0.20693424122103196</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>22.609999999999893</v>
-          </cell>
-          <cell r="C19">
-            <v>-0.24000342396254418</v>
-          </cell>
-          <cell r="G19">
-            <v>-0.18804018625049115</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>23.939999999999891</v>
-          </cell>
-          <cell r="C20">
-            <v>0.16342977173903631</v>
-          </cell>
-          <cell r="G20">
-            <v>0.18592378054213585</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>25.269999999999897</v>
-          </cell>
-          <cell r="C21">
-            <v>-0.26772213197452033</v>
-          </cell>
-          <cell r="G21">
-            <v>-0.16947538766120201</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>26.599999999999895</v>
-          </cell>
-          <cell r="C22">
-            <v>0.20324391597442026</v>
-          </cell>
-          <cell r="G22">
-            <v>9.5323116768060046E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>27.929999999999893</v>
-          </cell>
-          <cell r="C23">
-            <v>-0.15861121770919595</v>
-          </cell>
-          <cell r="G23">
-            <v>-0.18114786581614428</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>29.259999999999891</v>
-          </cell>
-          <cell r="C24">
-            <v>0.1782970787636417</v>
-          </cell>
-          <cell r="G24">
-            <v>0.16180065902192181</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>30.589999999999897</v>
-          </cell>
-          <cell r="C25">
-            <v>-0.20371711529232084</v>
-          </cell>
-          <cell r="G25">
-            <v>-0.20349232399846237</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>31.919999999999895</v>
-          </cell>
-          <cell r="C26">
-            <v>0.13671901674567746</v>
-          </cell>
-          <cell r="G26">
-            <v>0.11677824328143015</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>33.249999999999893</v>
-          </cell>
-          <cell r="C27">
-            <v>-0.16327300042030105</v>
-          </cell>
-          <cell r="G27">
-            <v>-0.20704965067425429</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>34.579999999999892</v>
-          </cell>
-          <cell r="C28">
-            <v>7.170604704486061E-2</v>
-          </cell>
-          <cell r="G28">
-            <v>0.15891033109784086</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>35.577499999999894</v>
-          </cell>
-          <cell r="C29">
-            <v>-0.19073972017762289</v>
-          </cell>
-          <cell r="G29">
-            <v>-0.10410950999352522</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>37.239999999999888</v>
-          </cell>
-          <cell r="C30">
-            <v>0.16695760730419693</v>
-          </cell>
-          <cell r="G30">
-            <v>2.2620252831562406E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>38.569999999999894</v>
-          </cell>
-          <cell r="C31">
-            <v>-0.12812063889602218</v>
-          </cell>
-          <cell r="G31">
-            <v>-8.8879705162791006E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>39.899999999999892</v>
-          </cell>
-          <cell r="C32">
-            <v>0.1188278506652201</v>
-          </cell>
-          <cell r="G32">
-            <v>2.30649186660364E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>41.229999999999897</v>
-          </cell>
-          <cell r="C33">
-            <v>-9.1960324353125983E-2</v>
-          </cell>
-          <cell r="G33">
-            <v>-9.3326363507530929E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>42.559999999999896</v>
-          </cell>
-          <cell r="C34">
-            <v>4.9909063017261161E-2</v>
-          </cell>
-          <cell r="G34">
-            <v>8.72079652889097E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>43.889999999999894</v>
-          </cell>
-          <cell r="C35">
-            <v>-0.10292181343058929</v>
-          </cell>
-          <cell r="G35">
-            <v>-0.11322515960024206</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9304,8 +8962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12953,70 +12611,70 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18">
+    <row r="2" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15">
         <v>34</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="16">
         <v>43.446666666666594</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="15">
         <f t="shared" si="0"/>
         <v>49.446666666666594</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="15">
         <v>8047</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="16">
         <f>MAX(D:D)</f>
         <v>11433</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="16">
         <f t="shared" si="1"/>
         <v>-948.51908396946601</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="16">
         <f t="shared" si="2"/>
         <v>-0.1054435074969472</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="16">
         <f t="shared" ref="J2:J65" si="3">MOD(B2,1.33)</f>
         <v>0.88666666666659211</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18">
+    <row r="3" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15">
         <v>35</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="16">
         <v>43.003333333333195</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="15">
         <f t="shared" si="0"/>
         <v>49.003333333333195</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="15">
         <v>9780</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="16">
         <f>MIN(D:D)</f>
         <v>5932</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="16">
         <f t="shared" si="1"/>
         <v>784.48091603053399</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="16">
         <f t="shared" si="2"/>
         <v>8.72079652889097E-2</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="16">
         <f t="shared" si="3"/>
         <v>0.44333333333319302</v>
       </c>
@@ -13089,29 +12747,29 @@
         <v>0.66499999999988724</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18">
+    <row r="6" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15">
         <v>38</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <v>41.229999999999897</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="15">
         <f t="shared" si="0"/>
         <v>47.229999999999897</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <v>8156</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="16">
         <f t="shared" si="1"/>
         <v>-839.51908396946601</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="16">
         <f t="shared" si="2"/>
         <v>-9.3326363507530929E-2</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="16">
         <f t="shared" si="3"/>
         <v>1.3299999999998953</v>
       </c>
@@ -13197,29 +12855,29 @@
         <v>1.3299999999998899</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18">
+    <row r="10" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15">
         <v>42</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="16">
         <v>39.234999999999893</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="15">
         <f t="shared" si="0"/>
         <v>45.234999999999893</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <v>9204</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="16">
         <f t="shared" si="1"/>
         <v>208.48091603053399</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="16">
         <f t="shared" si="2"/>
         <v>2.3176085124654897E-2</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="16">
         <f t="shared" si="3"/>
         <v>0.66499999999989079</v>
       </c>
@@ -13251,56 +12909,56 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18">
+    <row r="12" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15">
         <v>44</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="16">
         <v>38.126666666666594</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="15">
         <f t="shared" si="0"/>
         <v>44.126666666666594</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <v>8169</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="16">
         <f t="shared" si="1"/>
         <v>-826.51908396946601</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="16">
         <f t="shared" si="2"/>
         <v>-9.1881199545490455E-2</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="16">
         <f t="shared" si="3"/>
         <v>0.88666666666659211</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20">
+    <row r="13" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
         <v>45</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="18">
         <v>37.683333333333195</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <f t="shared" si="0"/>
         <v>43.683333333333195</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>9199</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="18">
         <f t="shared" si="1"/>
         <v>203.48091603053399</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="18">
         <f t="shared" si="2"/>
         <v>2.2620252831562406E-2</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="18">
         <f t="shared" si="3"/>
         <v>0.44333333333319302</v>
       </c>
@@ -13386,29 +13044,29 @@
         <v>1.3299999999998882</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18">
+    <row r="17" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15">
         <v>49</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="16">
         <v>35.577499999999894</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="15">
         <f t="shared" si="0"/>
         <v>41.577499999999894</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="15">
         <v>7714</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="16">
         <f t="shared" si="1"/>
         <v>-1281.519083969466</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="16">
         <f t="shared" si="2"/>
         <v>-0.142461938216907</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="16">
         <f t="shared" si="3"/>
         <v>0.99749999999989214</v>
       </c>
@@ -13440,29 +13098,29 @@
         <v>0.66499999999989612</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20">
+    <row r="19" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17">
         <v>51</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="18">
         <v>34.912499999999895</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="17">
         <f t="shared" si="0"/>
         <v>40.912499999999895</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="17">
         <v>10425</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="18">
         <f t="shared" si="1"/>
         <v>1429.480916030534</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="18">
         <f t="shared" si="2"/>
         <v>0.15891033109784086</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="18">
         <f t="shared" si="3"/>
         <v>0.33249999999989299</v>
       </c>
@@ -13521,29 +13179,29 @@
         <v>0.66499999999989079</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18">
+    <row r="22" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="15">
         <v>54</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="16">
         <v>33.249999999999893</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="15">
         <f t="shared" si="0"/>
         <v>39.249999999999893</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="15">
         <v>7133</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="16">
         <f t="shared" si="1"/>
         <v>-1862.519083969466</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="16">
         <f t="shared" si="2"/>
         <v>-0.20704965067425429</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="16">
         <f t="shared" si="3"/>
         <v>1.3299999999998917</v>
       </c>
@@ -13602,29 +13260,29 @@
         <v>0.4433333333332925</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="20">
+    <row r="25" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17">
         <v>57</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="18">
         <v>31.919999999999895</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="17">
         <f t="shared" si="0"/>
         <v>37.919999999999895</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="17">
         <v>10046</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="18">
         <f t="shared" si="1"/>
         <v>1050.480916030534</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="18">
         <f t="shared" si="2"/>
         <v>0.11677824328143015</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="18">
         <f t="shared" si="3"/>
         <v>1.3299999999998935</v>
       </c>
@@ -13683,29 +13341,29 @@
         <v>1.3299999999998953</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="18">
+    <row r="28" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="15">
         <v>60</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="16">
         <v>30.14666666666659</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="15">
         <f t="shared" si="0"/>
         <v>36.14666666666659</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="15">
         <v>7165</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="16">
         <f t="shared" si="1"/>
         <v>-1830.519083969466</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="16">
         <f t="shared" si="2"/>
         <v>-0.20349232399846237</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="16">
         <f t="shared" si="3"/>
         <v>0.88666666666658855</v>
       </c>
@@ -13737,29 +13395,29 @@
         <v>0.44333333333328895</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="18">
+    <row r="30" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="15">
         <v>62</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="16">
         <v>29.259999999999891</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="15">
         <f t="shared" si="0"/>
         <v>35.259999999999891</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="15">
         <v>10451</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="16">
         <f t="shared" si="1"/>
         <v>1455.480916030534</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="16">
         <f t="shared" si="2"/>
         <v>0.16180065902192181</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="16">
         <f t="shared" si="3"/>
         <v>1.3299999999998899</v>
       </c>
@@ -13845,29 +13503,29 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="18">
+    <row r="34" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="15">
         <v>66</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="16">
         <v>27.59749999999989</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="15">
         <f t="shared" si="4"/>
         <v>33.59749999999989</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="15">
         <v>7366</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="16">
         <f t="shared" si="5"/>
         <v>-1629.519083969466</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="16">
         <f t="shared" si="6"/>
         <v>-0.18114786581614428</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="16">
         <f t="shared" si="3"/>
         <v>0.99749999999988859</v>
       </c>
@@ -13926,29 +13584,29 @@
         <v>0.33249999999988944</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="18">
+    <row r="37" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="15">
         <v>69</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="16">
         <v>26.599999999999895</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="15">
         <f t="shared" si="4"/>
         <v>32.599999999999895</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="15">
         <v>9853</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="16">
         <f t="shared" si="5"/>
         <v>857.48091603053399</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="16">
         <f t="shared" si="6"/>
         <v>9.5323116768060046E-2</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="16">
         <f t="shared" si="3"/>
         <v>1.3299999999998935</v>
       </c>
@@ -14007,29 +13665,29 @@
         <v>1.3299999999998953</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="18">
+    <row r="40" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="15">
         <v>72</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="16">
         <v>24.937499999999893</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="15">
         <f t="shared" si="4"/>
         <v>30.937499999999893</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="15">
         <v>7471</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="16">
         <f t="shared" si="5"/>
         <v>-1524.519083969466</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="16">
         <f t="shared" si="6"/>
         <v>-0.16947538766120201</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J40" s="16">
         <f t="shared" si="3"/>
         <v>0.99749999999989214</v>
       </c>
@@ -14088,29 +13746,29 @@
         <v>0.33249999999989299</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18">
+    <row r="43" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="15">
         <v>75</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="16">
         <v>23.939999999999891</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="15">
         <f t="shared" si="4"/>
         <v>29.939999999999891</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="15">
         <v>10668</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="16">
         <f t="shared" si="5"/>
         <v>1672.480916030534</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="16">
         <f t="shared" si="6"/>
         <v>0.18592378054213585</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J43" s="16">
         <f t="shared" si="3"/>
         <v>1.3299999999998899</v>
       </c>
@@ -14169,29 +13827,29 @@
         <v>0.44333333333329072</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="18">
+    <row r="46" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="15">
         <v>78</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="16">
         <v>22.609999999999893</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="15">
         <f t="shared" si="4"/>
         <v>28.609999999999893</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="15">
         <v>7304</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="16">
         <f t="shared" si="5"/>
         <v>-1691.519083969466</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I46" s="16">
         <f t="shared" si="6"/>
         <v>-0.18804018625049115</v>
       </c>
-      <c r="J46" s="19">
+      <c r="J46" s="16">
         <f t="shared" si="3"/>
         <v>1.3299999999998917</v>
       </c>
@@ -14277,29 +13935,29 @@
         <v>1.3299999999998935</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="18">
+    <row r="50" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="15">
         <v>82</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="16">
         <v>20.836666666666595</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="15">
         <f t="shared" si="4"/>
         <v>26.836666666666595</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="15">
         <v>10857</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="16">
         <f t="shared" si="5"/>
         <v>1861.480916030534</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="16">
         <f t="shared" si="6"/>
         <v>0.20693424122103196</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J50" s="16">
         <f t="shared" si="3"/>
         <v>0.88666666666659388</v>
       </c>
@@ -14358,29 +14016,29 @@
         <v>1.3299999999998953</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="18">
+    <row r="53" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="15">
         <v>85</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="16">
         <v>19.683999999999891</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="15">
         <f t="shared" si="4"/>
         <v>25.683999999999891</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="15">
         <v>7011</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="16">
         <f t="shared" si="5"/>
         <v>-1984.519083969466</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="16">
         <f t="shared" si="6"/>
         <v>-0.22061195862571106</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="16">
         <f t="shared" si="3"/>
         <v>1.0639999999998899</v>
       </c>
@@ -14466,29 +14124,29 @@
         <v>0.26599999999989521</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="18">
+    <row r="57" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="15">
         <v>89</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="16">
         <v>18.619999999999891</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="15">
         <f t="shared" si="4"/>
         <v>24.619999999999891</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="15">
         <v>10607</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57" s="16">
         <f t="shared" si="5"/>
         <v>1611.480916030534</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I57" s="16">
         <f t="shared" si="6"/>
         <v>0.17914262656640748</v>
       </c>
-      <c r="J57" s="19">
+      <c r="J57" s="16">
         <f t="shared" si="3"/>
         <v>1.3299999999998899</v>
       </c>
@@ -14574,29 +14232,29 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="18">
+    <row r="61" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="15">
         <v>93</v>
       </c>
-      <c r="B61" s="19">
+      <c r="B61" s="16">
         <v>15.959</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="15">
         <f t="shared" si="4"/>
         <v>21.959</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="15">
         <v>7003</v>
       </c>
-      <c r="G61" s="19">
+      <c r="G61" s="16">
         <f t="shared" si="5"/>
         <v>-1992.519083969466</v>
       </c>
-      <c r="I61" s="19">
+      <c r="I61" s="16">
         <f t="shared" si="6"/>
         <v>-0.22150129029465904</v>
       </c>
-      <c r="J61" s="19">
+      <c r="J61" s="16">
         <f t="shared" si="3"/>
         <v>1.3289999999999988</v>
       </c>
@@ -14682,29 +14340,29 @@
         <v>0.33249999999989122</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="18">
+    <row r="65" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="15">
         <v>97</v>
       </c>
-      <c r="B65" s="19">
+      <c r="B65" s="16">
         <v>14.629999999999896</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C65" s="15">
         <f t="shared" si="4"/>
         <v>20.629999999999896</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D65" s="15">
         <v>10838</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G65" s="16">
         <f t="shared" ref="G65:G96" si="7">D65-$F$1</f>
         <v>1842.480916030534</v>
       </c>
-      <c r="I65" s="19">
+      <c r="I65" s="16">
         <f t="shared" si="6"/>
         <v>0.20482207850728051</v>
       </c>
-      <c r="J65" s="19">
+      <c r="J65" s="16">
         <f t="shared" si="3"/>
         <v>1.3299999999998953</v>
       </c>
@@ -14790,29 +14448,29 @@
         <v>1.3299999999998899</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="18">
+    <row r="69" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="15">
         <v>101</v>
       </c>
-      <c r="B69" s="19">
+      <c r="B69" s="16">
         <v>13.033999999999892</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C69" s="15">
         <f t="shared" si="4"/>
         <v>19.033999999999892</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69" s="15">
         <v>7366</v>
       </c>
-      <c r="G69" s="19">
+      <c r="G69" s="16">
         <f t="shared" si="7"/>
         <v>-1629.519083969466</v>
       </c>
-      <c r="I69" s="19">
+      <c r="I69" s="16">
         <f t="shared" si="6"/>
         <v>-0.18114786581614428</v>
       </c>
-      <c r="J69" s="19">
+      <c r="J69" s="16">
         <f t="shared" si="8"/>
         <v>1.0639999999998917</v>
       </c>
@@ -14925,29 +14583,29 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="18">
+    <row r="74" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="15">
         <v>106</v>
       </c>
-      <c r="B74" s="19">
+      <c r="B74" s="16">
         <v>11.703999999999894</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C74" s="15">
         <f t="shared" si="4"/>
         <v>17.703999999999894</v>
       </c>
-      <c r="D74" s="18">
+      <c r="D74" s="15">
         <v>11300</v>
       </c>
-      <c r="G74" s="19">
+      <c r="G74" s="16">
         <f t="shared" si="7"/>
         <v>2304.480916030534</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I74" s="16">
         <f t="shared" si="6"/>
         <v>0.25618098238902653</v>
       </c>
-      <c r="J74" s="19">
+      <c r="J74" s="16">
         <f t="shared" si="8"/>
         <v>1.0639999999998935</v>
       </c>
@@ -15033,29 +14691,29 @@
         <v>0.26599999999989166</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="18">
+    <row r="78" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="15">
         <v>110</v>
       </c>
-      <c r="B78" s="19">
+      <c r="B78" s="16">
         <v>10.639999999999894</v>
       </c>
-      <c r="C78" s="18">
+      <c r="C78" s="15">
         <f t="shared" si="4"/>
         <v>16.639999999999894</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D78" s="15">
         <v>6936</v>
       </c>
-      <c r="G78" s="19">
+      <c r="G78" s="16">
         <f t="shared" si="7"/>
         <v>-2059.519083969466</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I78" s="16">
         <f t="shared" si="6"/>
         <v>-0.22894944302209841</v>
       </c>
-      <c r="J78" s="19">
+      <c r="J78" s="16">
         <f t="shared" si="8"/>
         <v>1.3299999999998935</v>
       </c>
@@ -15168,29 +14826,29 @@
         <v>1.3299999999999947</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="18">
+    <row r="83" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="15">
         <v>115</v>
       </c>
-      <c r="B83" s="19">
+      <c r="B83" s="16">
         <v>9.0883333333332956</v>
       </c>
-      <c r="C83" s="18">
+      <c r="C83" s="15">
         <f t="shared" si="4"/>
         <v>15.088333333333296</v>
       </c>
-      <c r="D83" s="18">
+      <c r="D83" s="15">
         <v>10839</v>
       </c>
-      <c r="G83" s="19">
+      <c r="G83" s="16">
         <f t="shared" si="7"/>
         <v>1843.480916030534</v>
       </c>
-      <c r="I83" s="19">
+      <c r="I83" s="16">
         <f t="shared" si="6"/>
         <v>0.20493324496589901</v>
       </c>
-      <c r="J83" s="19">
+      <c r="J83" s="16">
         <f t="shared" si="8"/>
         <v>1.1083333333332952</v>
       </c>
@@ -15303,29 +14961,29 @@
         <v>0.22166666666659651</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="18">
+    <row r="88" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="15">
         <v>120</v>
       </c>
-      <c r="B88" s="19">
+      <c r="B88" s="16">
         <v>7.9799999999999969</v>
       </c>
-      <c r="C88" s="18">
+      <c r="C88" s="15">
         <f t="shared" si="4"/>
         <v>13.979999999999997</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D88" s="15">
         <v>6853</v>
       </c>
-      <c r="G88" s="19">
+      <c r="G88" s="16">
         <f t="shared" si="7"/>
         <v>-2142.519083969466</v>
       </c>
-      <c r="I88" s="19">
+      <c r="I88" s="16">
         <f t="shared" si="6"/>
         <v>-0.23817625908743373</v>
       </c>
-      <c r="J88" s="19">
+      <c r="J88" s="16">
         <f t="shared" si="8"/>
         <v>1.3299999999999965</v>
       </c>
@@ -15438,29 +15096,29 @@
         <v>0.26599999999999646</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="18">
+    <row r="93" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="15">
         <v>125</v>
       </c>
-      <c r="B93" s="19">
+      <c r="B93" s="16">
         <v>6.6499999999999915</v>
       </c>
-      <c r="C93" s="18">
+      <c r="C93" s="15">
         <f t="shared" si="4"/>
         <v>12.649999999999991</v>
       </c>
-      <c r="D93" s="18">
+      <c r="D93" s="15">
         <v>11433</v>
       </c>
-      <c r="G93" s="19">
+      <c r="G93" s="16">
         <f t="shared" si="7"/>
         <v>2437.480916030534</v>
       </c>
-      <c r="I93" s="19">
+      <c r="I93" s="16">
         <f t="shared" si="6"/>
         <v>0.27096612138528675</v>
       </c>
-      <c r="J93" s="19">
+      <c r="J93" s="16">
         <f t="shared" si="8"/>
         <v>1.3299999999999912</v>
       </c>
@@ -15600,29 +15258,29 @@
         <v>1.329999999999993</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="18">
+    <row r="99" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="15">
         <v>131</v>
       </c>
-      <c r="B99" s="19">
+      <c r="B99" s="16">
         <v>5.1299999999999955</v>
       </c>
-      <c r="C99" s="18">
+      <c r="C99" s="15">
         <f t="shared" si="9"/>
         <v>11.129999999999995</v>
       </c>
-      <c r="D99" s="18">
+      <c r="D99" s="15">
         <v>6749</v>
       </c>
-      <c r="G99" s="19">
+      <c r="G99" s="16">
         <f t="shared" si="10"/>
         <v>-2246.519083969466</v>
       </c>
-      <c r="I99" s="19">
+      <c r="I99" s="16">
         <f t="shared" si="11"/>
         <v>-0.2497375707837575</v>
       </c>
-      <c r="J99" s="19">
+      <c r="J99" s="16">
         <f t="shared" si="8"/>
         <v>1.1399999999999952</v>
       </c>
@@ -15789,29 +15447,29 @@
         <v>1.3299999999999947</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="18">
+    <row r="106" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="15">
         <v>138</v>
       </c>
-      <c r="B106" s="19">
+      <c r="B106" s="16">
         <v>3.7683333333332953</v>
       </c>
-      <c r="C106" s="18">
+      <c r="C106" s="15">
         <f t="shared" si="9"/>
         <v>9.7683333333332953</v>
       </c>
-      <c r="D106" s="18">
+      <c r="D106" s="15">
         <v>10782</v>
       </c>
-      <c r="G106" s="19">
+      <c r="G106" s="16">
         <f t="shared" si="10"/>
         <v>1786.480916030534</v>
       </c>
-      <c r="I106" s="19">
+      <c r="I106" s="16">
         <f t="shared" si="11"/>
         <v>0.19859675682464462</v>
       </c>
-      <c r="J106" s="19">
+      <c r="J106" s="16">
         <f t="shared" si="8"/>
         <v>1.1083333333332952</v>
       </c>
@@ -15924,29 +15582,29 @@
         <v>0.22166666666659651</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="18">
+    <row r="111" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="15">
         <v>143</v>
       </c>
-      <c r="B111" s="19">
+      <c r="B111" s="16">
         <v>2.6599999999999966</v>
       </c>
-      <c r="C111" s="18">
+      <c r="C111" s="15">
         <f t="shared" si="9"/>
         <v>8.6599999999999966</v>
       </c>
-      <c r="D111" s="18">
+      <c r="D111" s="15">
         <v>6677</v>
       </c>
-      <c r="G111" s="19">
+      <c r="G111" s="16">
         <f t="shared" si="10"/>
         <v>-2318.519083969466</v>
       </c>
-      <c r="I111" s="19">
+      <c r="I111" s="16">
         <f t="shared" si="11"/>
         <v>-0.25774155580428937</v>
       </c>
-      <c r="J111" s="19">
+      <c r="J111" s="16">
         <f t="shared" si="8"/>
         <v>1.3299999999999965</v>
       </c>
@@ -16248,29 +15906,29 @@
         <v>1.3299999999999912</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="18">
+    <row r="123" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="15">
         <v>155</v>
       </c>
-      <c r="B123" s="19">
+      <c r="B123" s="16">
         <v>1.1822222222221868</v>
       </c>
-      <c r="C123" s="18">
+      <c r="C123" s="15">
         <f t="shared" si="9"/>
         <v>7.1822222222221868</v>
       </c>
-      <c r="D123" s="18">
+      <c r="D123" s="15">
         <v>10842</v>
       </c>
-      <c r="G123" s="19">
+      <c r="G123" s="16">
         <f t="shared" si="10"/>
         <v>1846.480916030534</v>
       </c>
-      <c r="I123" s="19">
+      <c r="I123" s="16">
         <f t="shared" si="11"/>
         <v>0.20526674434175449</v>
       </c>
-      <c r="J123" s="19">
+      <c r="J123" s="16">
         <f t="shared" si="8"/>
         <v>1.1822222222221868</v>
       </c>
@@ -16437,29 +16095,29 @@
         <v>0.29555555555548807</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="18">
+    <row r="130" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="15">
         <v>162</v>
       </c>
-      <c r="B130" s="19">
+      <c r="B130" s="16">
         <v>0.14777777777769785</v>
       </c>
-      <c r="C130" s="18">
+      <c r="C130" s="15">
         <f t="shared" si="9"/>
         <v>6.1477777777776978</v>
       </c>
-      <c r="D130" s="18">
+      <c r="D130" s="15">
         <v>5932</v>
       </c>
-      <c r="G130" s="19">
+      <c r="G130" s="16">
         <f t="shared" si="10"/>
         <v>-3063.519083969466</v>
       </c>
-      <c r="I130" s="19">
+      <c r="I130" s="16">
         <f t="shared" si="11"/>
         <v>-0.3405605674750703</v>
       </c>
-      <c r="J130" s="19">
+      <c r="J130" s="16">
         <f t="shared" ref="J130:J131" si="12">MOD(B130,1.33)</f>
         <v>0.14777777777769785</v>
       </c>
@@ -16700,110 +16358,110 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="15"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
+      <c r="A3" s="10">
         <v>163</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>0</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>-0.19825160985533649</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <f>ABS($C4-$C3)</f>
         <v>0.5001170416966364</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>162</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="20">
         <v>0.14777777777769785</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="20">
         <v>-0.3405605674750703</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="9">
         <f>ABS($G4-$G3)</f>
         <v>0.54582731181682476</v>
       </c>
-      <c r="I3" s="16">
-        <f>D3/H3</f>
+      <c r="I3" s="13">
+        <f t="shared" ref="I3:I34" si="0">D3/H3</f>
         <v>0.9162550698167915</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="13">
+      <c r="A4" s="10">
         <v>154</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>1.3299999999999912</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>0.30186543184129994</v>
       </c>
-      <c r="D4" s="12">
-        <f t="shared" ref="D4:D34" si="0">ABS($C5-$C4)</f>
+      <c r="D4" s="9">
+        <f t="shared" ref="D4:D32" si="1">ABS($C5-$C4)</f>
         <v>0.53212007201256384</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>155</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="20">
         <v>1.1822222222221868</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="20">
         <v>0.20526674434175449</v>
       </c>
-      <c r="H4" s="12">
-        <f t="shared" ref="H4:H34" si="1">ABS($G5-$G4)</f>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H34" si="2">ABS($G5-$G4)</f>
         <v>0.46300830014604388</v>
       </c>
-      <c r="I4" s="16">
-        <f>D4/H4</f>
+      <c r="I4" s="13">
+        <f t="shared" si="0"/>
         <v>1.1492668097844476</v>
       </c>
     </row>
@@ -16817,25 +16475,25 @@
       <c r="C5" s="4">
         <v>-0.23025464017126396</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
+        <f t="shared" si="1"/>
+        <v>0.55977425848765106</v>
+      </c>
+      <c r="E5" s="19">
+        <v>143</v>
+      </c>
+      <c r="F5" s="20">
+        <v>2.6599999999999966</v>
+      </c>
+      <c r="G5" s="20">
+        <v>-0.25774155580428937</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="2"/>
+        <v>0.45633831262893398</v>
+      </c>
+      <c r="I5" s="13">
         <f t="shared" si="0"/>
-        <v>0.55977425848765106</v>
-      </c>
-      <c r="E5" s="22">
-        <v>143</v>
-      </c>
-      <c r="F5" s="23">
-        <v>2.6599999999999966</v>
-      </c>
-      <c r="G5" s="23">
-        <v>-0.25774155580428937</v>
-      </c>
-      <c r="H5" s="12">
-        <f t="shared" si="1"/>
-        <v>0.45633831262893398</v>
-      </c>
-      <c r="I5" s="16">
-        <f>D5/H5</f>
         <v>1.2266650487065827</v>
       </c>
     </row>
@@ -16849,25 +16507,25 @@
       <c r="C6" s="4">
         <v>0.32951961831638704</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
+        <f t="shared" si="1"/>
+        <v>0.60437778506037221</v>
+      </c>
+      <c r="E6" s="19">
+        <v>138</v>
+      </c>
+      <c r="F6" s="20">
+        <v>3.7683333333332953</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.19859675682464462</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="2"/>
+        <v>0.44833432760840208</v>
+      </c>
+      <c r="I6" s="13">
         <f t="shared" si="0"/>
-        <v>0.60437778506037221</v>
-      </c>
-      <c r="E6" s="22">
-        <v>138</v>
-      </c>
-      <c r="F6" s="23">
-        <v>3.7683333333332953</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0.19859675682464462</v>
-      </c>
-      <c r="H6" s="12">
-        <f t="shared" si="1"/>
-        <v>0.44833432760840208</v>
-      </c>
-      <c r="I6" s="16">
-        <f>D6/H6</f>
         <v>1.3480515495754464</v>
       </c>
     </row>
@@ -16881,25 +16539,25 @@
       <c r="C7" s="4">
         <v>-0.27485816674398517</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5478428151294481</v>
+      </c>
+      <c r="E7" s="19">
+        <v>131</v>
+      </c>
+      <c r="F7" s="20">
+        <v>5.1299999999999955</v>
+      </c>
+      <c r="G7" s="20">
+        <v>-0.2497375707837575</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="2"/>
+        <v>0.52070369216904422</v>
+      </c>
+      <c r="I7" s="13">
         <f t="shared" si="0"/>
-        <v>0.5478428151294481</v>
-      </c>
-      <c r="E7" s="22">
-        <v>131</v>
-      </c>
-      <c r="F7" s="23">
-        <v>5.1299999999999955</v>
-      </c>
-      <c r="G7" s="23">
-        <v>-0.2497375707837575</v>
-      </c>
-      <c r="H7" s="12">
-        <f t="shared" si="1"/>
-        <v>0.52070369216904422</v>
-      </c>
-      <c r="I7" s="16">
-        <f>D7/H7</f>
         <v>1.0521200893493823</v>
       </c>
     </row>
@@ -16913,62 +16571,62 @@
       <c r="C8" s="4">
         <v>0.27298464838546294</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.48930068650275149</v>
+      </c>
+      <c r="E8" s="19">
+        <v>125</v>
+      </c>
+      <c r="F8" s="20">
+        <v>6.6499999999999915</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0.27096612138528675</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="2"/>
+        <v>0.50914238047272042</v>
+      </c>
+      <c r="I8" s="13">
         <f t="shared" si="0"/>
-        <v>0.48930068650275149</v>
-      </c>
-      <c r="E8" s="22">
-        <v>125</v>
-      </c>
-      <c r="F8" s="23">
-        <v>6.6499999999999915</v>
-      </c>
-      <c r="G8" s="23">
-        <v>0.27096612138528675</v>
-      </c>
-      <c r="H8" s="12">
+        <v>0.96102918411241545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>120</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7.9799999999999969</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-0.21631603811728858</v>
+      </c>
+      <c r="D9" s="9">
         <f t="shared" si="1"/>
-        <v>0.50914238047272042</v>
-      </c>
-      <c r="I8" s="16">
-        <f>D8/H8</f>
-        <v>0.96102918411241545</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
+        <v>0.52453747249520133</v>
+      </c>
+      <c r="E9" s="19">
         <v>120</v>
       </c>
-      <c r="B9" s="13">
+      <c r="F9" s="20">
         <v>7.9799999999999969</v>
       </c>
-      <c r="C9" s="9">
-        <v>-0.21631603811728858</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="G9" s="20">
+        <v>-0.23817625908743373</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="2"/>
+        <v>0.44310950405333271</v>
+      </c>
+      <c r="I9" s="13">
         <f t="shared" si="0"/>
-        <v>0.52453747249520133</v>
-      </c>
-      <c r="E9" s="22">
-        <v>120</v>
-      </c>
-      <c r="F9" s="23">
-        <v>7.9799999999999969</v>
-      </c>
-      <c r="G9" s="23">
-        <v>-0.23817625908743373</v>
-      </c>
-      <c r="H9" s="12">
-        <f t="shared" si="1"/>
-        <v>0.44310950405333271</v>
-      </c>
-      <c r="I9" s="16">
-        <f>D9/H9</f>
         <v>1.1837648881303795</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="29">
+      <c r="A10" s="26">
         <v>116</v>
       </c>
       <c r="B10" s="4">
@@ -16977,62 +16635,62 @@
       <c r="C10" s="4">
         <v>0.30822143437791272</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.58508675981767033</v>
+      </c>
+      <c r="E10" s="19">
+        <v>115</v>
+      </c>
+      <c r="F10" s="20">
+        <v>9.0883333333332956</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.20493324496589901</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="2"/>
+        <v>0.43388268798799745</v>
+      </c>
+      <c r="I10" s="13">
         <f t="shared" si="0"/>
-        <v>0.58508675981767033</v>
-      </c>
-      <c r="E10" s="22">
-        <v>115</v>
-      </c>
-      <c r="F10" s="23">
-        <v>9.0883333333332956</v>
-      </c>
-      <c r="G10" s="23">
-        <v>0.20493324496589901</v>
-      </c>
-      <c r="H10" s="12">
+        <v>1.3484906773552938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>110</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10.639999999999894</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-0.27686532543975761</v>
+      </c>
+      <c r="D11" s="9">
         <f t="shared" si="1"/>
-        <v>0.43388268798799745</v>
-      </c>
-      <c r="I10" s="16">
-        <f>D10/H10</f>
-        <v>1.3484906773552938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+        <v>0.48205261343468431</v>
+      </c>
+      <c r="E11" s="19">
         <v>110</v>
       </c>
-      <c r="B11" s="9">
+      <c r="F11" s="20">
         <v>10.639999999999894</v>
       </c>
-      <c r="C11" s="9">
-        <v>-0.27686532543975761</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="G11" s="20">
+        <v>-0.22894944302209841</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="2"/>
+        <v>0.48513042541112494</v>
+      </c>
+      <c r="I11" s="13">
         <f t="shared" si="0"/>
-        <v>0.48205261343468431</v>
-      </c>
-      <c r="E11" s="22">
-        <v>110</v>
-      </c>
-      <c r="F11" s="23">
-        <v>10.639999999999894</v>
-      </c>
-      <c r="G11" s="23">
-        <v>-0.22894944302209841</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="1"/>
-        <v>0.48513042541112494</v>
-      </c>
-      <c r="I11" s="16">
-        <f>D11/H11</f>
         <v>0.99365570202315734</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="29">
+      <c r="A12" s="26">
         <v>107</v>
       </c>
       <c r="B12" s="4">
@@ -17041,30 +16699,30 @@
       <c r="C12" s="4">
         <v>0.20518728799492672</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.47290889048727647</v>
+      </c>
+      <c r="E12" s="19">
+        <v>106</v>
+      </c>
+      <c r="F12" s="20">
+        <v>11.703999999999894</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0.25618098238902653</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="2"/>
+        <v>0.43732884820517082</v>
+      </c>
+      <c r="I12" s="13">
         <f t="shared" si="0"/>
-        <v>0.47290889048727647</v>
-      </c>
-      <c r="E12" s="22">
-        <v>106</v>
-      </c>
-      <c r="F12" s="23">
-        <v>11.703999999999894</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0.25618098238902653</v>
-      </c>
-      <c r="H12" s="12">
-        <f t="shared" si="1"/>
-        <v>0.43732884820517082</v>
-      </c>
-      <c r="I12" s="16">
-        <f>D12/H12</f>
         <v>1.0813576383724255</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="29">
+      <c r="A13" s="26">
         <v>101</v>
       </c>
       <c r="B13" s="4">
@@ -17073,57 +16731,57 @@
       <c r="C13" s="4">
         <v>-0.26772160249234978</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.56824892853646802</v>
+      </c>
+      <c r="E13" s="19">
+        <v>101</v>
+      </c>
+      <c r="F13" s="20">
+        <v>13.033999999999892</v>
+      </c>
+      <c r="G13" s="20">
+        <v>-0.18114786581614428</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="2"/>
+        <v>0.3859699443234248</v>
+      </c>
+      <c r="I13" s="13">
         <f t="shared" si="0"/>
-        <v>0.56824892853646802</v>
-      </c>
-      <c r="E13" s="22">
-        <v>101</v>
-      </c>
-      <c r="F13" s="23">
-        <v>13.033999999999892</v>
-      </c>
-      <c r="G13" s="23">
-        <v>-0.18114786581614428</v>
-      </c>
-      <c r="H13" s="12">
+        <v>1.4722621201310482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>97</v>
+      </c>
+      <c r="B14" s="6">
+        <v>14.629999999999896</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.3005273260441183</v>
+      </c>
+      <c r="D14" s="9">
         <f t="shared" si="1"/>
-        <v>0.3859699443234248</v>
-      </c>
-      <c r="I13" s="16">
-        <f>D13/H13</f>
-        <v>1.4722621201310482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
+        <v>0.53591137177124515</v>
+      </c>
+      <c r="E14" s="19">
         <v>97</v>
       </c>
-      <c r="B14" s="9">
+      <c r="F14" s="20">
         <v>14.629999999999896</v>
       </c>
-      <c r="C14" s="9">
-        <v>0.3005273260441183</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="G14" s="20">
+        <v>0.20482207850728051</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="2"/>
+        <v>0.42632336880193955</v>
+      </c>
+      <c r="I14" s="13">
         <f t="shared" si="0"/>
-        <v>0.53591137177124515</v>
-      </c>
-      <c r="E14" s="22">
-        <v>97</v>
-      </c>
-      <c r="F14" s="23">
-        <v>14.629999999999896</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0.20482207850728051</v>
-      </c>
-      <c r="H14" s="12">
-        <f t="shared" si="1"/>
-        <v>0.42632336880193955</v>
-      </c>
-      <c r="I14" s="16">
-        <f>D14/H14</f>
         <v>1.2570537084966078</v>
       </c>
     </row>
@@ -17137,30 +16795,30 @@
       <c r="C15" s="4">
         <v>-0.23538404572712687</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="9">
+        <f t="shared" si="1"/>
+        <v>0.4961027243050915</v>
+      </c>
+      <c r="E15" s="19">
+        <v>93</v>
+      </c>
+      <c r="F15" s="20">
+        <v>15.959</v>
+      </c>
+      <c r="G15" s="20">
+        <v>-0.22150129029465904</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="2"/>
+        <v>0.40064391686106648</v>
+      </c>
+      <c r="I15" s="13">
         <f t="shared" si="0"/>
-        <v>0.4961027243050915</v>
-      </c>
-      <c r="E15" s="22">
-        <v>93</v>
-      </c>
-      <c r="F15" s="23">
-        <v>15.959</v>
-      </c>
-      <c r="G15" s="23">
-        <v>-0.22150129029465904</v>
-      </c>
-      <c r="H15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.40064391686106648</v>
-      </c>
-      <c r="I15" s="16">
-        <f>D15/H15</f>
         <v>1.2382634639555199</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="29">
+      <c r="A16" s="26">
         <v>90</v>
       </c>
       <c r="B16" s="4">
@@ -17169,25 +16827,25 @@
       <c r="C16" s="4">
         <v>0.2607186785779646</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="9">
+        <f t="shared" si="1"/>
+        <v>0.51093339689052131</v>
+      </c>
+      <c r="E16" s="19">
+        <v>89</v>
+      </c>
+      <c r="F16" s="20">
+        <v>18.619999999999891</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0.17914262656640748</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="2"/>
+        <v>0.39975458519211854</v>
+      </c>
+      <c r="I16" s="13">
         <f t="shared" si="0"/>
-        <v>0.51093339689052131</v>
-      </c>
-      <c r="E16" s="22">
-        <v>89</v>
-      </c>
-      <c r="F16" s="23">
-        <v>18.619999999999891</v>
-      </c>
-      <c r="G16" s="23">
-        <v>0.17914262656640748</v>
-      </c>
-      <c r="H16" s="12">
-        <f t="shared" si="1"/>
-        <v>0.39975458519211854</v>
-      </c>
-      <c r="I16" s="16">
-        <f>D16/H16</f>
         <v>1.2781176647291519</v>
       </c>
     </row>
@@ -17201,25 +16859,25 @@
       <c r="C17" s="4">
         <v>-0.25021471831255671</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="9">
+        <f t="shared" si="1"/>
+        <v>0.46086593831264178</v>
+      </c>
+      <c r="E17" s="19">
+        <v>85</v>
+      </c>
+      <c r="F17" s="20">
+        <v>19.683999999999891</v>
+      </c>
+      <c r="G17" s="20">
+        <v>-0.22061195862571106</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="2"/>
+        <v>0.42754619984674302</v>
+      </c>
+      <c r="I17" s="13">
         <f t="shared" si="0"/>
-        <v>0.46086593831264178</v>
-      </c>
-      <c r="E17" s="22">
-        <v>85</v>
-      </c>
-      <c r="F17" s="23">
-        <v>19.683999999999891</v>
-      </c>
-      <c r="G17" s="23">
-        <v>-0.22061195862571106</v>
-      </c>
-      <c r="H17" s="12">
-        <f t="shared" si="1"/>
-        <v>0.42754619984674302</v>
-      </c>
-      <c r="I17" s="16">
-        <f>D17/H17</f>
         <v>1.0779324865426063</v>
       </c>
     </row>
@@ -17233,57 +16891,57 @@
       <c r="C18" s="4">
         <v>0.21065122000008507</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="9">
+        <f t="shared" si="1"/>
+        <v>0.44447414229716675</v>
+      </c>
+      <c r="E18" s="19">
+        <v>82</v>
+      </c>
+      <c r="F18" s="20">
+        <v>20.836666666666595</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0.20693424122103196</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="2"/>
+        <v>0.39497442747152312</v>
+      </c>
+      <c r="I18" s="13">
         <f t="shared" si="0"/>
-        <v>0.44447414229716675</v>
-      </c>
-      <c r="E18" s="22">
-        <v>82</v>
-      </c>
-      <c r="F18" s="23">
-        <v>20.836666666666595</v>
-      </c>
-      <c r="G18" s="23">
-        <v>0.20693424122103196</v>
-      </c>
-      <c r="H18" s="12">
+        <v>1.1253238472741693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <v>78</v>
+      </c>
+      <c r="B19" s="6">
+        <v>22.609999999999893</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-0.23382292229708165</v>
+      </c>
+      <c r="D19" s="9">
         <f t="shared" si="1"/>
-        <v>0.39497442747152312</v>
-      </c>
-      <c r="I18" s="16">
-        <f>D18/H18</f>
-        <v>1.1253238472741693</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="8">
+        <v>0.46432271162202765</v>
+      </c>
+      <c r="E19" s="19">
         <v>78</v>
       </c>
-      <c r="B19" s="9">
+      <c r="F19" s="20">
         <v>22.609999999999893</v>
       </c>
-      <c r="C19" s="9">
-        <v>-0.23382292229708165</v>
-      </c>
-      <c r="D19" s="12">
+      <c r="G19" s="20">
+        <v>-0.18804018625049115</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="2"/>
+        <v>0.373963966792627</v>
+      </c>
+      <c r="I19" s="13">
         <f t="shared" si="0"/>
-        <v>0.46432271162202765</v>
-      </c>
-      <c r="E19" s="22">
-        <v>78</v>
-      </c>
-      <c r="F19" s="23">
-        <v>22.609999999999893</v>
-      </c>
-      <c r="G19" s="23">
-        <v>-0.18804018625049115</v>
-      </c>
-      <c r="H19" s="12">
-        <f t="shared" si="1"/>
-        <v>0.373963966792627</v>
-      </c>
-      <c r="I19" s="16">
-        <f>D19/H19</f>
         <v>1.2416242014020216</v>
       </c>
     </row>
@@ -17297,25 +16955,25 @@
       <c r="C20" s="4">
         <v>0.23049978932494603</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="9">
+        <f t="shared" si="1"/>
+        <v>0.51427866138347533</v>
+      </c>
+      <c r="E20" s="19">
+        <v>75</v>
+      </c>
+      <c r="F20" s="20">
+        <v>23.939999999999891</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0.18592378054213585</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="2"/>
+        <v>0.35539916820333783</v>
+      </c>
+      <c r="I20" s="13">
         <f t="shared" si="0"/>
-        <v>0.51427866138347533</v>
-      </c>
-      <c r="E20" s="22">
-        <v>75</v>
-      </c>
-      <c r="F20" s="23">
-        <v>23.939999999999891</v>
-      </c>
-      <c r="G20" s="23">
-        <v>0.18592378054213585</v>
-      </c>
-      <c r="H20" s="12">
-        <f t="shared" si="1"/>
-        <v>0.35539916820333783</v>
-      </c>
-      <c r="I20" s="16">
-        <f>D20/H20</f>
         <v>1.4470452026754219</v>
       </c>
     </row>
@@ -17329,57 +16987,57 @@
       <c r="C21" s="4">
         <v>-0.28377887205852936</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="9">
+        <f t="shared" si="1"/>
+        <v>0.54795432394587995</v>
+      </c>
+      <c r="E21" s="19">
+        <v>72</v>
+      </c>
+      <c r="F21" s="20">
+        <v>24.937499999999893</v>
+      </c>
+      <c r="G21" s="20">
+        <v>-0.16947538766120201</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="2"/>
+        <v>0.26479850442926206</v>
+      </c>
+      <c r="I21" s="13">
         <f t="shared" si="0"/>
-        <v>0.54795432394587995</v>
-      </c>
-      <c r="E21" s="22">
-        <v>72</v>
-      </c>
-      <c r="F21" s="23">
-        <v>24.937499999999893</v>
-      </c>
-      <c r="G21" s="23">
-        <v>-0.16947538766120201</v>
-      </c>
-      <c r="H21" s="12">
+        <v>2.0693255995796598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="10">
+        <v>69</v>
+      </c>
+      <c r="B22" s="6">
+        <v>26.599999999999895</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.26417545188735053</v>
+      </c>
+      <c r="D22" s="9">
         <f t="shared" si="1"/>
-        <v>0.26479850442926206</v>
-      </c>
-      <c r="I21" s="16">
-        <f>D21/H21</f>
-        <v>2.0693255995796598</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="13">
+        <v>0.4473733715243936</v>
+      </c>
+      <c r="E22" s="19">
         <v>69</v>
       </c>
-      <c r="B22" s="9">
+      <c r="F22" s="20">
         <v>26.599999999999895</v>
       </c>
-      <c r="C22" s="9">
-        <v>0.26417545188735053</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="G22" s="20">
+        <v>9.5323116768060046E-2</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="2"/>
+        <v>0.27647098258420433</v>
+      </c>
+      <c r="I22" s="13">
         <f t="shared" si="0"/>
-        <v>0.4473733715243936</v>
-      </c>
-      <c r="E22" s="22">
-        <v>69</v>
-      </c>
-      <c r="F22" s="23">
-        <v>26.599999999999895</v>
-      </c>
-      <c r="G22" s="23">
-        <v>9.5323116768060046E-2</v>
-      </c>
-      <c r="H22" s="12">
-        <f t="shared" si="1"/>
-        <v>0.27647098258420433</v>
-      </c>
-      <c r="I22" s="16">
-        <f>D22/H22</f>
         <v>1.6181566952985302</v>
       </c>
     </row>
@@ -17393,30 +17051,30 @@
       <c r="C23" s="4">
         <v>-0.1831979196370431</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="9">
+        <f t="shared" si="1"/>
+        <v>0.33631059035831784</v>
+      </c>
+      <c r="E23" s="19">
+        <v>66</v>
+      </c>
+      <c r="F23" s="20">
+        <v>27.59749999999989</v>
+      </c>
+      <c r="G23" s="20">
+        <v>-0.18114786581614428</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="2"/>
+        <v>0.34294852483806609</v>
+      </c>
+      <c r="I23" s="13">
         <f t="shared" si="0"/>
-        <v>0.33631059035831784</v>
-      </c>
-      <c r="E23" s="22">
-        <v>66</v>
-      </c>
-      <c r="F23" s="23">
-        <v>27.59749999999989</v>
-      </c>
-      <c r="G23" s="23">
-        <v>-0.18114786581614428</v>
-      </c>
-      <c r="H23" s="12">
-        <f t="shared" si="1"/>
-        <v>0.34294852483806609</v>
-      </c>
-      <c r="I23" s="16">
-        <f>D23/H23</f>
         <v>0.98064451659944429</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="29">
+      <c r="A24" s="26">
         <v>63</v>
       </c>
       <c r="B24" s="4">
@@ -17425,158 +17083,158 @@
       <c r="C24" s="4">
         <v>0.15311267072127474</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="9">
+        <f t="shared" si="1"/>
+        <v>0.2973940134236186</v>
+      </c>
+      <c r="E24" s="19">
+        <v>62</v>
+      </c>
+      <c r="F24" s="20">
+        <v>29.259999999999891</v>
+      </c>
+      <c r="G24" s="20">
+        <v>0.16180065902192181</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="2"/>
+        <v>0.36529298302038415</v>
+      </c>
+      <c r="I24" s="13">
         <f t="shared" si="0"/>
-        <v>0.2973940134236186</v>
-      </c>
-      <c r="E24" s="22">
-        <v>62</v>
-      </c>
-      <c r="F24" s="23">
-        <v>29.259999999999891</v>
-      </c>
-      <c r="G24" s="23">
-        <v>0.16180065902192181</v>
-      </c>
-      <c r="H24" s="12">
+        <v>0.81412462666172636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="10">
+        <v>59</v>
+      </c>
+      <c r="B25" s="6">
+        <v>30.589999999999897</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-0.14428134270234383</v>
+      </c>
+      <c r="D25" s="9">
         <f t="shared" si="1"/>
-        <v>0.36529298302038415</v>
-      </c>
-      <c r="I24" s="16">
-        <f>D24/H24</f>
-        <v>0.81412462666172636</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="13">
-        <v>59</v>
-      </c>
-      <c r="B25" s="9">
-        <v>30.589999999999897</v>
-      </c>
-      <c r="C25" s="9">
-        <v>-0.14428134270234383</v>
-      </c>
-      <c r="D25" s="12">
+        <v>0.27408867078937171</v>
+      </c>
+      <c r="E25" s="19">
+        <v>60</v>
+      </c>
+      <c r="F25" s="20">
+        <v>30.14666666666659</v>
+      </c>
+      <c r="G25" s="20">
+        <v>-0.20349232399846237</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="2"/>
+        <v>0.3202705672798925</v>
+      </c>
+      <c r="I25" s="13">
         <f t="shared" si="0"/>
-        <v>0.27408867078937171</v>
-      </c>
-      <c r="E25" s="22">
-        <v>60</v>
-      </c>
-      <c r="F25" s="23">
-        <v>30.14666666666659</v>
-      </c>
-      <c r="G25" s="23">
-        <v>-0.20349232399846237</v>
-      </c>
-      <c r="H25" s="12">
+        <v>0.85580349489261287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="10">
+        <v>57</v>
+      </c>
+      <c r="B26" s="6">
+        <v>31.919999999999895</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.12980732808702791</v>
+      </c>
+      <c r="D26" s="9">
         <f t="shared" si="1"/>
-        <v>0.3202705672798925</v>
-      </c>
-      <c r="I25" s="16">
-        <f>D25/H25</f>
-        <v>0.85580349489261287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="13">
+        <v>0.26561400074055475</v>
+      </c>
+      <c r="E26" s="21">
         <v>57</v>
       </c>
-      <c r="B26" s="9">
+      <c r="F26" s="22">
         <v>31.919999999999895</v>
       </c>
-      <c r="C26" s="9">
-        <v>0.12980732808702791</v>
-      </c>
-      <c r="D26" s="12">
+      <c r="G26" s="22">
+        <v>0.11677824328143015</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="2"/>
+        <v>0.32382789395568445</v>
+      </c>
+      <c r="I26" s="13">
         <f t="shared" si="0"/>
-        <v>0.26561400074055475</v>
-      </c>
-      <c r="E26" s="24">
-        <v>57</v>
-      </c>
-      <c r="F26" s="25">
-        <v>31.919999999999895</v>
-      </c>
-      <c r="G26" s="25">
-        <v>0.11677824328143015</v>
-      </c>
-      <c r="H26" s="12">
+        <v>0.82023199884350839</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <v>54</v>
+      </c>
+      <c r="B27" s="6">
+        <v>33.249999999999893</v>
+      </c>
+      <c r="C27" s="6">
+        <v>-0.13580667265352681</v>
+      </c>
+      <c r="D27" s="9">
         <f t="shared" si="1"/>
-        <v>0.32382789395568445</v>
-      </c>
-      <c r="I26" s="16">
-        <f>D26/H26</f>
-        <v>0.82023199884350839</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="11">
+        <v>0.33954434603484007</v>
+      </c>
+      <c r="E27" s="19">
         <v>54</v>
       </c>
-      <c r="B27" s="9">
+      <c r="F27" s="20">
         <v>33.249999999999893</v>
       </c>
-      <c r="C27" s="9">
-        <v>-0.13580667265352681</v>
-      </c>
-      <c r="D27" s="12">
+      <c r="G27" s="20">
+        <v>-0.20704965067425429</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="2"/>
+        <v>0.36595998177209516</v>
+      </c>
+      <c r="I27" s="13">
         <f t="shared" si="0"/>
-        <v>0.33954434603484007</v>
-      </c>
-      <c r="E27" s="22">
-        <v>54</v>
-      </c>
-      <c r="F27" s="23">
-        <v>33.249999999999893</v>
-      </c>
-      <c r="G27" s="23">
-        <v>-0.20704965067425429</v>
-      </c>
-      <c r="H27" s="12">
+        <v>0.92781823955356502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="10">
+        <v>52</v>
+      </c>
+      <c r="B28" s="6">
+        <v>34.579999999999892</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.20373767338131329</v>
+      </c>
+      <c r="D28" s="9">
         <f t="shared" si="1"/>
-        <v>0.36595998177209516</v>
-      </c>
-      <c r="I27" s="16">
-        <f>D27/H27</f>
-        <v>0.92781823955356502</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="13">
-        <v>52</v>
-      </c>
-      <c r="B28" s="9">
-        <v>34.579999999999892</v>
-      </c>
-      <c r="C28" s="9">
-        <v>0.20373767338131329</v>
-      </c>
-      <c r="D28" s="12">
+        <v>0.38113713456390264</v>
+      </c>
+      <c r="E28" s="21">
+        <v>51</v>
+      </c>
+      <c r="F28" s="22">
+        <v>34.912499999999895</v>
+      </c>
+      <c r="G28" s="22">
+        <v>0.15891033109784086</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="2"/>
+        <v>0.30137226931474786</v>
+      </c>
+      <c r="I28" s="13">
         <f t="shared" si="0"/>
-        <v>0.38113713456390264</v>
-      </c>
-      <c r="E28" s="24">
-        <v>51</v>
-      </c>
-      <c r="F28" s="25">
-        <v>34.912499999999895</v>
-      </c>
-      <c r="G28" s="25">
-        <v>0.15891033109784086</v>
-      </c>
-      <c r="H28" s="12">
-        <f t="shared" si="1"/>
-        <v>0.30137226931474786</v>
-      </c>
-      <c r="I28" s="16">
-        <f>D28/H28</f>
         <v>1.2646722123124399</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="29">
+      <c r="A29" s="26">
         <v>49</v>
       </c>
       <c r="B29" s="4">
@@ -17585,25 +17243,25 @@
       <c r="C29" s="4">
         <v>-0.17739946118258934</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="9">
+        <f t="shared" si="1"/>
+        <v>0.32047633842500178</v>
+      </c>
+      <c r="E29" s="19">
+        <v>49</v>
+      </c>
+      <c r="F29" s="20">
+        <v>35.577499999999894</v>
+      </c>
+      <c r="G29" s="20">
+        <v>-0.142461938216907</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="2"/>
+        <v>0.16508219104846941</v>
+      </c>
+      <c r="I29" s="13">
         <f t="shared" si="0"/>
-        <v>0.32047633842500178</v>
-      </c>
-      <c r="E29" s="22">
-        <v>49</v>
-      </c>
-      <c r="F29" s="23">
-        <v>35.577499999999894</v>
-      </c>
-      <c r="G29" s="23">
-        <v>-0.142461938216907</v>
-      </c>
-      <c r="H29" s="12">
-        <f t="shared" si="1"/>
-        <v>0.16508219104846941</v>
-      </c>
-      <c r="I29" s="16">
-        <f>D29/H29</f>
         <v>1.9413138170119602</v>
       </c>
     </row>
@@ -17617,25 +17275,25 @@
       <c r="C30" s="4">
         <v>0.14307687724241247</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="9">
+        <f t="shared" si="1"/>
+        <v>0.24587694023212558</v>
+      </c>
+      <c r="E30" s="21">
+        <v>45</v>
+      </c>
+      <c r="F30" s="22">
+        <v>37.683333333333195</v>
+      </c>
+      <c r="G30" s="22">
+        <v>2.2620252831562406E-2</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="2"/>
+        <v>0.11450145237705286</v>
+      </c>
+      <c r="I30" s="13">
         <f t="shared" si="0"/>
-        <v>0.24587694023212558</v>
-      </c>
-      <c r="E30" s="24">
-        <v>45</v>
-      </c>
-      <c r="F30" s="25">
-        <v>37.683333333333195</v>
-      </c>
-      <c r="G30" s="25">
-        <v>2.2620252831562406E-2</v>
-      </c>
-      <c r="H30" s="12">
-        <f t="shared" si="1"/>
-        <v>0.11450145237705286</v>
-      </c>
-      <c r="I30" s="16">
-        <f>D30/H30</f>
         <v>2.1473696195787433</v>
       </c>
     </row>
@@ -17649,25 +17307,25 @@
       <c r="C31" s="4">
         <v>-0.10280006298971313</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="9">
+        <f t="shared" si="1"/>
+        <v>0.32939704373954604</v>
+      </c>
+      <c r="E31" s="19">
+        <v>44</v>
+      </c>
+      <c r="F31" s="20">
+        <v>38.126666666666594</v>
+      </c>
+      <c r="G31" s="20">
+        <v>-9.1881199545490455E-2</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="2"/>
+        <v>0.11505728467014535</v>
+      </c>
+      <c r="I31" s="13">
         <f t="shared" si="0"/>
-        <v>0.32939704373954604</v>
-      </c>
-      <c r="E31" s="22">
-        <v>44</v>
-      </c>
-      <c r="F31" s="23">
-        <v>38.126666666666594</v>
-      </c>
-      <c r="G31" s="23">
-        <v>-9.1881199545490455E-2</v>
-      </c>
-      <c r="H31" s="12">
-        <f t="shared" si="1"/>
-        <v>0.11505728467014535</v>
-      </c>
-      <c r="I31" s="16">
-        <f>D31/H31</f>
         <v>2.8628960320407839</v>
       </c>
     </row>
@@ -17681,25 +17339,25 @@
       <c r="C32" s="4">
         <v>0.22659698074983292</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="9">
+        <f t="shared" si="1"/>
+        <v>0.29092650207057402</v>
+      </c>
+      <c r="E32" s="19">
+        <v>42</v>
+      </c>
+      <c r="F32" s="20">
+        <v>39.234999999999893</v>
+      </c>
+      <c r="G32" s="20">
+        <v>2.3176085124654897E-2</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="2"/>
+        <v>0.11650244863218583</v>
+      </c>
+      <c r="I32" s="13">
         <f t="shared" si="0"/>
-        <v>0.29092650207057402</v>
-      </c>
-      <c r="E32" s="22">
-        <v>42</v>
-      </c>
-      <c r="F32" s="23">
-        <v>39.234999999999893</v>
-      </c>
-      <c r="G32" s="23">
-        <v>2.3176085124654897E-2</v>
-      </c>
-      <c r="H32" s="12">
-        <f t="shared" si="1"/>
-        <v>0.11650244863218583</v>
-      </c>
-      <c r="I32" s="16">
-        <f>D32/H32</f>
         <v>2.4971707074506977</v>
       </c>
     </row>
@@ -17713,30 +17371,30 @@
       <c r="C33" s="4">
         <v>-6.4329521320741101E-2</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="9">
         <f>ABS($C34-$C33)</f>
         <v>0.12756608599798264</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="19">
         <v>38</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="20">
         <v>41.229999999999897</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="20">
         <v>-9.3326363507530929E-2</v>
       </c>
-      <c r="H33" s="12">
-        <f t="shared" si="1"/>
+      <c r="H33" s="9">
+        <f t="shared" si="2"/>
         <v>0.18053432879644063</v>
       </c>
-      <c r="I33" s="16">
-        <f>D33/H33</f>
+      <c r="I33" s="13">
+        <f t="shared" si="0"/>
         <v>0.70660293168851163</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="29">
+      <c r="A34" s="26">
         <v>37</v>
       </c>
       <c r="B34" s="4">
@@ -17745,54 +17403,54 @@
       <c r="C34" s="4">
         <v>6.3236564677241522E-2</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>ABS($C35-$C34)</f>
         <v>0.12466685677075574</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="19">
         <v>35</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="20">
         <v>43.003333333333195</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="20">
         <v>8.72079652889097E-2</v>
       </c>
-      <c r="H34" s="12">
-        <f t="shared" si="1"/>
+      <c r="H34" s="9">
+        <f t="shared" si="2"/>
         <v>0.1926514727858569</v>
       </c>
-      <c r="I34" s="16">
-        <f>D34/H34</f>
+      <c r="I34" s="13">
+        <f t="shared" si="0"/>
         <v>0.64711084201951607</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28">
+      <c r="A35" s="25">
         <v>34</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="27">
         <v>43.446666666666594</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="27">
         <v>-6.1430292093514222E-2</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="23">
         <v>34</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35" s="24">
         <v>43.446666666666594</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="24">
         <v>-0.1054435074969472</v>
       </c>
-      <c r="H35" s="31" t="s">
+      <c r="H35" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="17"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H36" t="s">
@@ -17814,13 +17472,13 @@
         <v>-6.1430292093514222E-2</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="18">
+      <c r="E39" s="15">
         <v>34</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="16">
         <v>43.446666666666594</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="16">
         <v>-0.1054435074969472</v>
       </c>
     </row>
@@ -17835,13 +17493,13 @@
         <v>6.3236564677241522E-2</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="18">
+      <c r="E40" s="15">
         <v>35</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="16">
         <v>43.003333333333195</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="16">
         <v>8.72079652889097E-2</v>
       </c>
     </row>
@@ -17856,13 +17514,13 @@
         <v>-6.4329521320741101E-2</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="18">
+      <c r="E41" s="15">
         <v>38</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="16">
         <v>41.229999999999897</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="16">
         <v>-9.3326363507530929E-2</v>
       </c>
     </row>
@@ -17877,13 +17535,13 @@
         <v>0.22659698074983292</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="18">
+      <c r="E42" s="15">
         <v>42</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="16">
         <v>39.234999999999893</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="16">
         <v>2.3176085124654897E-2</v>
       </c>
     </row>
@@ -17898,13 +17556,13 @@
         <v>-0.10280006298971313</v>
       </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="18">
+      <c r="E43" s="15">
         <v>44</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="16">
         <v>38.126666666666594</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="16">
         <v>-9.1881199545490455E-2</v>
       </c>
     </row>
@@ -17919,13 +17577,13 @@
         <v>0.14307687724241247</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="20">
+      <c r="E44" s="17">
         <v>45</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="18">
         <v>37.683333333333195</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="18">
         <v>2.2620252831562406E-2</v>
       </c>
     </row>
@@ -17940,13 +17598,13 @@
         <v>-0.17739946118258934</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="18">
+      <c r="E45" s="15">
         <v>49</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="16">
         <v>35.577499999999894</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G45" s="16">
         <v>-0.142461938216907</v>
       </c>
     </row>
@@ -17961,13 +17619,13 @@
         <v>0.15311267072127474</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="20">
+      <c r="E46" s="17">
         <v>51</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="18">
         <v>34.912499999999895</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="18">
         <v>0.15891033109784086</v>
       </c>
     </row>
@@ -17982,13 +17640,13 @@
         <v>-0.1831979196370431</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="18">
+      <c r="E47" s="15">
         <v>54</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="16">
         <v>33.249999999999893</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="16">
         <v>-0.20704965067425429</v>
       </c>
     </row>
@@ -18003,13 +17661,13 @@
         <v>-0.28377887205852936</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="20">
+      <c r="E48" s="17">
         <v>57</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="18">
         <v>31.919999999999895</v>
       </c>
-      <c r="G48" s="21">
+      <c r="G48" s="18">
         <v>0.11677824328143015</v>
       </c>
     </row>
@@ -18024,13 +17682,13 @@
         <v>0.23049978932494603</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="18">
+      <c r="E49" s="15">
         <v>60</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="16">
         <v>30.14666666666659</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="16">
         <v>-0.20349232399846237</v>
       </c>
     </row>
@@ -18045,13 +17703,13 @@
         <v>0.21065122000008507</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="18">
+      <c r="E50" s="15">
         <v>62</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="16">
         <v>29.259999999999891</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="16">
         <v>0.16180065902192181</v>
       </c>
     </row>
@@ -18066,13 +17724,13 @@
         <v>-0.25021471831255671</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="18">
+      <c r="E51" s="15">
         <v>66</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="16">
         <v>27.59749999999989</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G51" s="16">
         <v>-0.18114786581614428</v>
       </c>
     </row>
@@ -18087,13 +17745,13 @@
         <v>0.2607186785779646</v>
       </c>
       <c r="D52" s="4"/>
-      <c r="E52" s="18">
+      <c r="E52" s="15">
         <v>69</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="16">
         <v>26.599999999999895</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="16">
         <v>9.5323116768060046E-2</v>
       </c>
     </row>
@@ -18108,13 +17766,13 @@
         <v>-0.23538404572712687</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="18">
+      <c r="E53" s="15">
         <v>72</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="16">
         <v>24.937499999999893</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="16">
         <v>-0.16947538766120201</v>
       </c>
     </row>
@@ -18129,13 +17787,13 @@
         <v>-0.26772160249234978</v>
       </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="18">
+      <c r="E54" s="15">
         <v>75</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="16">
         <v>23.939999999999891</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54" s="16">
         <v>0.18592378054213585</v>
       </c>
     </row>
@@ -18150,13 +17808,13 @@
         <v>0.20518728799492672</v>
       </c>
       <c r="D55" s="4"/>
-      <c r="E55" s="18">
+      <c r="E55" s="15">
         <v>78</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="16">
         <v>22.609999999999893</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="16">
         <v>-0.18804018625049115</v>
       </c>
     </row>
@@ -18171,13 +17829,13 @@
         <v>0.30822143437791272</v>
       </c>
       <c r="D56" s="4"/>
-      <c r="E56" s="18">
+      <c r="E56" s="15">
         <v>82</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="16">
         <v>20.836666666666595</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56" s="16">
         <v>0.20693424122103196</v>
       </c>
     </row>
@@ -18192,13 +17850,13 @@
         <v>0.27298464838546294</v>
       </c>
       <c r="D57" s="4"/>
-      <c r="E57" s="18">
+      <c r="E57" s="15">
         <v>85</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57" s="16">
         <v>19.683999999999891</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57" s="16">
         <v>-0.22061195862571106</v>
       </c>
     </row>
@@ -18213,13 +17871,13 @@
         <v>-0.27485816674398517</v>
       </c>
       <c r="D58" s="4"/>
-      <c r="E58" s="18">
+      <c r="E58" s="15">
         <v>89</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="16">
         <v>18.619999999999891</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="16">
         <v>0.17914262656640748</v>
       </c>
     </row>
@@ -18234,13 +17892,13 @@
         <v>0.32951961831638704</v>
       </c>
       <c r="D59" s="4"/>
-      <c r="E59" s="18">
+      <c r="E59" s="15">
         <v>93</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="16">
         <v>15.959</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G59" s="16">
         <v>-0.22150129029465904</v>
       </c>
     </row>
@@ -18255,134 +17913,134 @@
         <v>-0.23025464017126396</v>
       </c>
       <c r="D60" s="4"/>
-      <c r="E60" s="18">
+      <c r="E60" s="15">
         <v>97</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F60" s="16">
         <v>14.629999999999896</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G60" s="16">
         <v>0.20482207850728051</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E61" s="18">
+      <c r="E61" s="15">
         <v>101</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F61" s="16">
         <v>13.033999999999892</v>
       </c>
-      <c r="G61" s="19">
+      <c r="G61" s="16">
         <v>-0.18114786581614428</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E62" s="18">
+      <c r="E62" s="15">
         <v>106</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F62" s="16">
         <v>11.703999999999894</v>
       </c>
-      <c r="G62" s="19">
+      <c r="G62" s="16">
         <v>0.25618098238902653</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E63" s="18">
+      <c r="E63" s="15">
         <v>110</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F63" s="16">
         <v>10.639999999999894</v>
       </c>
-      <c r="G63" s="19">
+      <c r="G63" s="16">
         <v>-0.22894944302209841</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E64" s="18">
+      <c r="E64" s="15">
         <v>115</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F64" s="16">
         <v>9.0883333333332956</v>
       </c>
-      <c r="G64" s="19">
+      <c r="G64" s="16">
         <v>0.20493324496589901</v>
       </c>
     </row>
     <row r="65" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E65" s="18">
+      <c r="E65" s="15">
         <v>120</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F65" s="16">
         <v>7.9799999999999969</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G65" s="16">
         <v>-0.23817625908743373</v>
       </c>
     </row>
     <row r="66" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E66" s="18">
+      <c r="E66" s="15">
         <v>125</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F66" s="16">
         <v>6.6499999999999915</v>
       </c>
-      <c r="G66" s="19">
+      <c r="G66" s="16">
         <v>0.27096612138528675</v>
       </c>
     </row>
     <row r="67" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E67" s="18">
+      <c r="E67" s="15">
         <v>131</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F67" s="16">
         <v>5.1299999999999955</v>
       </c>
-      <c r="G67" s="19">
+      <c r="G67" s="16">
         <v>-0.2497375707837575</v>
       </c>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E68" s="18">
+      <c r="E68" s="15">
         <v>138</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F68" s="16">
         <v>3.7683333333332953</v>
       </c>
-      <c r="G68" s="19">
+      <c r="G68" s="16">
         <v>0.19859675682464462</v>
       </c>
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E69" s="18">
+      <c r="E69" s="15">
         <v>143</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F69" s="16">
         <v>2.6599999999999966</v>
       </c>
-      <c r="G69" s="19">
+      <c r="G69" s="16">
         <v>-0.25774155580428937</v>
       </c>
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E70" s="18">
+      <c r="E70" s="15">
         <v>155</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F70" s="16">
         <v>1.1822222222221868</v>
       </c>
-      <c r="G70" s="19">
+      <c r="G70" s="16">
         <v>0.20526674434175449</v>
       </c>
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E71" s="18">
+      <c r="E71" s="15">
         <v>162</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F71" s="16">
         <v>0.14777777777769785</v>
       </c>
-      <c r="G71" s="19">
+      <c r="G71" s="16">
         <v>-0.3405605674750703</v>
       </c>
     </row>
@@ -18957,7 +18615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D33"/>
     </sheetView>
   </sheetViews>
@@ -18970,13 +18628,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="29">
         <v>0.5001170416966364</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="29">
         <v>0.54582731181682476</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="29">
         <v>0.9162550698167915</v>
       </c>
     </row>
@@ -18984,13 +18642,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="29">
         <v>0.53212007201256384</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="29">
         <v>0.46300830014604388</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="30">
         <v>1.1492668097844476</v>
       </c>
     </row>
@@ -18998,13 +18656,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="29">
         <v>0.55977425848765106</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="29">
         <v>0.45633831262893398</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="30">
         <v>1.2266650487065827</v>
       </c>
     </row>
@@ -19012,13 +18670,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="29">
         <v>0.60437778506037221</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="29">
         <v>0.44833432760840208</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="30">
         <v>1.3480515495754464</v>
       </c>
     </row>
@@ -19026,13 +18684,13 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="29">
         <v>0.5478428151294481</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="29">
         <v>0.52070369216904422</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="30">
         <v>1.0521200893493823</v>
       </c>
     </row>
@@ -19040,13 +18698,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="29">
         <v>0.48930068650275149</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="29">
         <v>0.50914238047272042</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="29">
         <v>0.96102918411241545</v>
       </c>
     </row>
@@ -19054,13 +18712,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="29">
         <v>0.52453747249520133</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="29">
         <v>0.44310950405333271</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="30">
         <v>1.1837648881303795</v>
       </c>
     </row>
@@ -19068,13 +18726,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="29">
         <v>0.58508675981767033</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="29">
         <v>0.43388268798799745</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="30">
         <v>1.3484906773552938</v>
       </c>
     </row>
@@ -19082,13 +18740,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="29">
         <v>0.48205261343468431</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="29">
         <v>0.48513042541112494</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="29">
         <v>0.99365570202315734</v>
       </c>
     </row>
@@ -19096,13 +18754,13 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="29">
         <v>0.47290889048727647</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="29">
         <v>0.43732884820517082</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="30">
         <v>1.0813576383724255</v>
       </c>
     </row>
@@ -19110,13 +18768,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="29">
         <v>0.56824892853646802</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="29">
         <v>0.3859699443234248</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="30">
         <v>1.4722621201310482</v>
       </c>
     </row>
@@ -19124,13 +18782,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="29">
         <v>0.53591137177124515</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="29">
         <v>0.42632336880193955</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="30">
         <v>1.2570537084966078</v>
       </c>
     </row>
@@ -19138,13 +18796,13 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="29">
         <v>0.4961027243050915</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="29">
         <v>0.40064391686106648</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="30">
         <v>1.2382634639555199</v>
       </c>
     </row>
@@ -19152,13 +18810,13 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="29">
         <v>0.51093339689052131</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="29">
         <v>0.39975458519211854</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="30">
         <v>1.2781176647291519</v>
       </c>
     </row>
@@ -19166,13 +18824,13 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="29">
         <v>0.46086593831264178</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="29">
         <v>0.42754619984674302</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="30">
         <v>1.0779324865426063</v>
       </c>
     </row>
@@ -19180,13 +18838,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="29">
         <v>0.44447414229716675</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="29">
         <v>0.39497442747152312</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="30">
         <v>1.1253238472741693</v>
       </c>
     </row>
@@ -19194,13 +18852,13 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="29">
         <v>0.46432271162202765</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="29">
         <v>0.373963966792627</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="30">
         <v>1.2416242014020216</v>
       </c>
     </row>
@@ -19208,13 +18866,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="29">
         <v>0.51427866138347533</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="29">
         <v>0.35539916820333783</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="30">
         <v>1.4470452026754219</v>
       </c>
     </row>
@@ -19222,13 +18880,13 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="29">
         <v>0.54795432394587995</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="29">
         <v>0.26479850442926206</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="30">
         <v>2.0693255995796598</v>
       </c>
     </row>
@@ -19236,13 +18894,13 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="29">
         <v>0.4473733715243936</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="29">
         <v>0.27647098258420433</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="30">
         <v>1.6181566952985302</v>
       </c>
     </row>
@@ -19250,13 +18908,13 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="29">
         <v>0.33631059035831784</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="29">
         <v>0.34294852483806609</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="29">
         <v>0.98064451659944429</v>
       </c>
     </row>
@@ -19264,13 +18922,13 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="29">
         <v>0.2973940134236186</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="29">
         <v>0.36529298302038415</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="29">
         <v>0.81412462666172636</v>
       </c>
     </row>
@@ -19278,13 +18936,13 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="29">
         <v>0.27408867078937171</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="29">
         <v>0.3202705672798925</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="29">
         <v>0.85580349489261287</v>
       </c>
     </row>
@@ -19292,13 +18950,13 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="29">
         <v>0.26561400074055475</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="29">
         <v>0.32382789395568445</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="29">
         <v>0.82023199884350839</v>
       </c>
     </row>
@@ -19306,13 +18964,13 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="29">
         <v>0.33954434603484007</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="29">
         <v>0.36595998177209516</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="29">
         <v>0.92781823955356502</v>
       </c>
     </row>
@@ -19320,13 +18978,13 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="29">
         <v>0.38113713456390264</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="29">
         <v>0.30137226931474786</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="30">
         <v>1.2646722123124399</v>
       </c>
     </row>
@@ -19334,13 +18992,13 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="29">
         <v>0.32047633842500178</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="29">
         <v>0.16508219104846941</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="30">
         <v>1.9413138170119602</v>
       </c>
     </row>
@@ -19348,13 +19006,13 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="29">
         <v>0.24587694023212558</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="29">
         <v>0.11450145237705286</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="30">
         <v>2.1473696195787433</v>
       </c>
     </row>
@@ -19362,13 +19020,13 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="29">
         <v>0.32939704373954604</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="29">
         <v>0.11505728467014535</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="30">
         <v>2.8628960320407839</v>
       </c>
     </row>
@@ -19376,13 +19034,13 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="29">
         <v>0.29092650207057402</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="29">
         <v>0.11650244863218583</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="30">
         <v>2.4971707074506977</v>
       </c>
     </row>
@@ -19390,13 +19048,13 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="29">
         <v>0.12756608599798264</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="29">
         <v>0.18053432879644063</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="29">
         <v>0.70660293168851163</v>
       </c>
     </row>
@@ -19404,13 +19062,13 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="29">
         <v>0.12466685677075574</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="29">
         <v>0.1926514727858569</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="29">
         <v>0.64711084201951607</v>
       </c>
     </row>
